--- a/Отдельные таблицы/Common_Table_Deases.xlsx
+++ b/Отдельные таблицы/Common_Table_Deases.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="446">
   <si>
     <t>State</t>
   </si>
@@ -1357,6 +1357,9 @@
   </si>
   <si>
     <t>120.33</t>
+  </si>
+  <si>
+    <t>15.11</t>
   </si>
 </sst>
 </file>
@@ -1677,11 +1680,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2316,8 +2322,8 @@
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="1">
-        <v>44150</v>
+      <c r="B19" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>140</v>

--- a/Отдельные таблицы/Common_Table_Deases.xlsx
+++ b/Отдельные таблицы/Common_Table_Deases.xlsx
@@ -81,9 +81,6 @@
     <t>17.66</t>
   </si>
   <si>
-    <t>North Carolina 11.</t>
-  </si>
-  <si>
     <t>17.54</t>
   </si>
   <si>
@@ -1360,6 +1357,9 @@
   </si>
   <si>
     <t>15.11</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
   </si>
 </sst>
 </file>
@@ -1680,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,28 +1694,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
-        <v>148</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K1" s="1"/>
       <c r="N1" s="1"/>
@@ -1728,28 +1728,28 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1760,31 +1760,31 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1795,31 +1795,31 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1836,25 +1836,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1865,31 +1865,31 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1900,31 +1900,31 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1935,31 +1935,31 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1970,31 +1970,31 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2005,31 +2005,31 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2040,31 +2040,31 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2081,25 +2081,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2110,31 +2110,31 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2145,31 +2145,31 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2180,31 +2180,31 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2215,31 +2215,31 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2250,31 +2250,31 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2288,28 +2288,28 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2320,31 +2320,31 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2355,31 +2355,31 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2390,31 +2390,31 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2425,31 +2425,31 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2460,31 +2460,31 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2495,31 +2495,31 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2536,25 +2536,25 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2565,31 +2565,31 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2600,31 +2600,31 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2635,31 +2635,31 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2676,25 +2676,25 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2705,31 +2705,31 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2740,31 +2740,31 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2775,31 +2775,31 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2816,25 +2816,25 @@
         <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2845,31 +2845,31 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>445</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2880,31 +2880,31 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2915,31 +2915,31 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2950,31 +2950,31 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2985,31 +2985,31 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3020,31 +3020,31 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3055,31 +3055,31 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3090,31 +3090,31 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3131,25 +3131,25 @@
         <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3166,25 +3166,25 @@
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3195,31 +3195,31 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3230,31 +3230,31 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3265,31 +3265,31 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3300,31 +3300,31 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3335,31 +3335,31 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3370,31 +3370,31 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3411,25 +3411,25 @@
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3440,31 +3440,31 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3475,31 +3475,31 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
